--- a/dataset/temperatura.xlsx
+++ b/dataset/temperatura.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/211b33f20a5e87a6/Área de Trabalho/AlergenicosAPP/dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/211b33f20a5e87a6/Área de Trabalho/Python/Streamlit/AlergenicosAPP/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{AF1B2362-9A78-4CB0-858F-FB06B2342580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66407DA9-EE75-44A5-9684-596E20578E7D}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{AF1B2362-9A78-4CB0-858F-FB06B2342580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43297355-F3C4-4E62-9A1C-C7470D23D146}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6AD346E9-91EE-4919-98FE-A136B5845FC7}"/>
   </bookViews>
@@ -154,6 +154,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -476,15 +480,15 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="25.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="32.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -657,5 +661,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>